--- a/biology/Zoologie/Eryphanis/Eryphanis.xlsx
+++ b/biology/Zoologie/Eryphanis/Eryphanis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Eryphanis est un genre de papillons de la famille des Nymphalidae et de la sous-famille des Morphinae, tribu des Brassolini.
 </t>
@@ -511,9 +523,11 @@
           <t>Historique et dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le genre  Eryphanis a été décrit  par l’entomologiste français Jean-Baptiste Alphonse Dechauffour de Boisduval en 1870[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le genre  Eryphanis a été décrit  par l’entomologiste français Jean-Baptiste Alphonse Dechauffour de Boisduval en 1870.
 L’espèce type est Eryphanis automedon (Cramer, 1775)</t>
         </is>
       </c>
@@ -544,20 +558,19 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Groupe automedon
-Eryphanis aesacus (Herrich-Schäffer, 1850)
+          <t>Groupe automedon</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eryphanis aesacus (Herrich-Schäffer, 1850)
 Eryphanis automedon (Cramer, 1775) - espèce type
 Eryphanis bubocula (Butler, 1872)
 Eryphanis lycomedon (C.Felder &amp; R.Felder, 1862)
 			Eryphanis aesacus
 			Eryphanis automedon - MHNT
-Groupe zolzivora'
-Eryphanis gerhardi (Weeks, 1902)
-Eryphanis greeneyi  Penz &amp; DeVries, 2008
-Eryphanis reevesii (Doubleday, [1849])
-Eryphanis zolzivora  (Hewitson, 1877)
-Eryphanis zolzivora zolzivora
-Eryphanis zolzivora opimus Staudinger, 1887</t>
+</t>
         </is>
       </c>
     </row>
@@ -582,13 +595,23 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Répartition</t>
+          <t>Liste des espèces</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les espèces du genre Eryphanis se rencontrent en Amérique du Sud et Amérique centrale[2].
-</t>
+          <t>Groupe zolzivora'</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Eryphanis gerhardi (Weeks, 1902)
+Eryphanis greeneyi  Penz &amp; DeVries, 2008
+Eryphanis reevesii (Doubleday, )
+Eryphanis zolzivora  (Hewitson, 1877)
+Eryphanis zolzivora zolzivora
+Eryphanis zolzivora opimus Staudinger, 1887</t>
         </is>
       </c>
     </row>
@@ -613,13 +636,48 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genre Eryphanis se rencontrent en Amérique du Sud et Amérique centrale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Eryphanis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eryphanis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Eryphanis Boisduval, 1870[3].
-Eryphanis a pour synonymes[3] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Eryphanis Boisduval, 1870.
+Eryphanis a pour synonymes :
 Eryphane Boisduval, 1870
 Euryphanes Godman &amp; Salvin, 1880
 Euryphanis Boisduval, 1870</t>
